--- a/runtime_analysis.xlsx
+++ b/runtime_analysis.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Runtimes for maximum sub-array algorithms (seconds)</t>
   </si>
@@ -70,11 +70,23 @@
   <si>
     <t>Array length</t>
   </si>
+  <si>
+    <t>n lg n</t>
+  </si>
+  <si>
+    <t>Constant Factor for Alg 3:</t>
+  </si>
+  <si>
+    <t>R^2 for Alg 3, nlgn:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000000000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -100,7 +112,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -128,7 +140,18 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -138,8 +161,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
@@ -148,16 +208,18 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
@@ -168,19 +230,6 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -191,7 +240,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -202,7 +264,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -215,10 +277,47 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -231,50 +330,74 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -291,6 +414,1958 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Runtimes for maximum sub-array algorithms </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Algorithm 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                      <a:t>t = 3E-07n</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1100" baseline="30000"/>
+                      <a:t>2.6214</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                      <a:t/>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                      <a:t>R² = 0.9982</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1100"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1280</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2560</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$5:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.4615058898899999E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.7710876464800002E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8380622863800002E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4200916290299999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16966009139999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.80736088752699997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.8955600261700001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31.423593998000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>253.22493696199999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2055.3600599800002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Algorithm 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.9627354273023565E-4"/>
+                  <c:y val="-7.4272255451923947E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                      <a:t>t = 8E-07n</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1100" baseline="30000"/>
+                      <a:t>1.7383</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                      <a:t/>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                      <a:t>R² = 0.9961</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1100"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1280</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2560</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$5:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5.1975250244100001E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5497207641600001E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9901008605999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8320083618199999E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0810317993199997E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.19590759277E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.7562122344999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.19263505935700001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.77345800399800002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.1561529636399999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Algorithm 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1280</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2560</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$5:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>8.1062316894499998E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.52111053467E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1280517578099998E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.4516067504899997E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.36494636536E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1248588562000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.3748874664300001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.0539970397899996E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.05469226837E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.2043943405199998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Algorithm 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                      <a:t>t = 3E-07n+ 2E-05</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                      <a:t>R² = 0.9969</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1100"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1280</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2560</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$5:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.5974044799799998E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3126602172899999E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5047531127900001E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.2942504882800005E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.16109848022E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.5115432739300002E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6498565673800001E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.2997131347699998E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.5493583679199999E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3351440429700001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>nlgn</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1280</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2560</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$5:$G$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.6212463378899999E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.2185802319105437E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0389335576082177E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4683021376686529E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.7174743202417408E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2996688730292352E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.9116857640202444E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.448067563964037E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4145527199775172E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.0789838543244536E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="352324904"/>
+        <c:axId val="352330392"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="352324904"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Array Length</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="352330392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="352330392"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Runtime (seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000000000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="352324904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11782425" y="5972175"/>
+          <a:ext cx="1885950" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>t = 4.88044E-07</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>  * (n lg n)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>R^2 = </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>0.9986</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.72734</cdr:x>
+      <cdr:y>0.13663</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.79327</cdr:x>
+      <cdr:y>0.29757</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="10086975" y="776289"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -562,228 +2637,302 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="8" max="8" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="12"/>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="3"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="21"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="13"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="22"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>4</v>
       </c>
+      <c r="G4" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="22"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="13">
+      <c r="B5" s="5">
         <v>10</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="16">
         <v>1.4615058898899999E-4</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="16">
         <v>5.1975250244100001E-5</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="16">
         <v>8.1062316894499998E-5</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="17">
         <v>1.5974044799799998E-5</v>
+      </c>
+      <c r="G5" s="18">
+        <f>B5 * LOG(B5, 2) * $H$9</f>
+        <v>1.6212463378899999E-5</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="13">
+      <c r="B6" s="5">
         <v>20</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="16">
         <v>6.7710876464800002E-4</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="16">
         <v>1.5497207641600001E-4</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="16">
         <v>1.52111053467E-4</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="17">
         <v>2.3126602172899999E-5</v>
+      </c>
+      <c r="G6" s="18">
+        <f>B6 * LOG(B6, 2) * $H$9</f>
+        <v>4.2185802319105437E-5</v>
+      </c>
+      <c r="H6" s="22">
+        <f>RSQ(E5:E14, G5:G14)</f>
+        <v>0.99861016739292163</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="13">
+      <c r="B7" s="5">
         <v>40</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="16">
         <v>3.8380622863800002E-3</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="16">
         <v>4.9901008605999998E-4</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="16">
         <v>3.1280517578099998E-4</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="17">
         <v>3.5047531127900001E-5</v>
       </c>
+      <c r="G7" s="18">
+        <f>B7 * LOG(B7, 2) * $H$9</f>
+        <v>1.0389335576082177E-4</v>
+      </c>
+      <c r="H7" s="22"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="13">
+      <c r="B8" s="5">
         <v>80</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="16">
         <v>2.4200916290299999E-2</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="16">
         <v>1.8320083618199999E-3</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="16">
         <v>6.4516067504899997E-4</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="17">
         <v>6.2942504882800005E-5</v>
+      </c>
+      <c r="G8" s="18">
+        <f t="shared" ref="G6:G14" si="0">B8 * LOG(B8, 2) * $H$9</f>
+        <v>2.4683021376686529E-4</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="13">
+      <c r="B9" s="5">
         <v>160</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="16">
         <v>0.16966009139999999</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="16">
         <v>7.0810317993199997E-3</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="16">
         <v>1.36494636536E-3</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="17">
         <v>1.16109848022E-4</v>
+      </c>
+      <c r="G9" s="18">
+        <f t="shared" si="0"/>
+        <v>5.7174743202417408E-4</v>
+      </c>
+      <c r="H9" s="22">
+        <f xml:space="preserve"> ($E$5 / ($B$5 * LOG($B$5, 2) * 5) )</f>
+        <v>4.8804377806527206E-7</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="13">
+      <c r="B10" s="5">
         <v>320</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="16">
         <v>0.80736088752699997</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="16">
         <v>1.19590759277E-2</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="16">
         <v>1.1248588562000001E-3</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="17">
         <v>8.5115432739300002E-5</v>
       </c>
+      <c r="G10" s="18">
+        <f t="shared" si="0"/>
+        <v>1.2996688730292352E-3</v>
+      </c>
+      <c r="H10" s="22"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="13">
+      <c r="B11" s="5">
         <v>640</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="16">
         <v>3.8955600261700001</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="16">
         <v>4.7562122344999999E-2</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="16">
         <v>2.3748874664300001E-3</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="17">
         <v>1.6498565673800001E-4</v>
       </c>
+      <c r="G11" s="18">
+        <f>B11 * LOG(B11, 2) * $H$9</f>
+        <v>2.9116857640202444E-3</v>
+      </c>
+      <c r="H11" s="22"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="13">
+      <c r="B12" s="5">
         <v>1280</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="16">
         <v>31.423593998000001</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="16">
         <v>0.19263505935700001</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="16">
         <v>5.0539970397899996E-3</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="17">
         <v>3.2997131347699998E-4</v>
       </c>
+      <c r="G12" s="18">
+        <f t="shared" si="0"/>
+        <v>6.448067563964037E-3</v>
+      </c>
+      <c r="H12" s="22"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="13">
+      <c r="B13" s="5">
         <v>2560</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="16">
         <v>253.22493696199999</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="16">
         <v>0.77345800399800002</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="16">
         <v>1.05469226837E-2</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="17">
         <v>6.5493583679199999E-4</v>
       </c>
+      <c r="G13" s="18">
+        <f t="shared" si="0"/>
+        <v>1.4145527199775172E-2</v>
+      </c>
+      <c r="H13" s="22"/>
     </row>
     <row r="14" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="15">
+      <c r="B14" s="7">
         <v>5120</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="19">
         <v>2055.3600599800002</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="19">
         <v>3.1561529636399999</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="19">
         <v>2.2043943405199998E-2</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="20">
         <v>1.3351440429700001E-3</v>
       </c>
+      <c r="G14" s="25">
+        <f t="shared" si="0"/>
+        <v>3.0789838543244536E-2</v>
+      </c>
+      <c r="H14" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -791,5 +2940,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/runtime_analysis.xlsx
+++ b/runtime_analysis.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>Runtimes for maximum sub-array algorithms (seconds)</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>R^2 for Alg 3, nlgn:</t>
+  </si>
+  <si>
+    <t>Theoretical maximum array size that can be solved in ten minutes</t>
   </si>
 </sst>
 </file>
@@ -112,7 +115,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -130,7 +133,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top style="medium">
         <color indexed="64"/>
@@ -141,8 +146,72 @@
     <border>
       <left/>
       <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top/>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -330,9 +399,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -341,62 +410,88 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2637,8 +2732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2651,6 +2746,10 @@
     <col min="6" max="6" width="14.28515625" customWidth="1"/>
     <col min="7" max="7" width="17.42578125" customWidth="1"/>
     <col min="8" max="8" width="25.140625" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" customWidth="1"/>
+    <col min="11" max="11" width="17" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" customWidth="1"/>
+    <col min="13" max="13" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2666,24 +2765,38 @@
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="21"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="20"/>
+      <c r="J2" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="28"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="22"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="21"/>
+      <c r="J3" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="30" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
@@ -2696,35 +2809,47 @@
       <c r="E4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="22"/>
+      <c r="H4" s="21"/>
+      <c r="J4" s="31">
+        <v>3533</v>
+      </c>
+      <c r="K4" s="32">
+        <v>127526</v>
+      </c>
+      <c r="L4" s="32">
+        <v>48170800</v>
+      </c>
+      <c r="M4" s="33">
+        <v>1999999933</v>
+      </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="5">
         <v>10</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="15">
         <v>1.4615058898899999E-4</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="15">
         <v>5.1975250244100001E-5</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="15">
         <v>8.1062316894499998E-5</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="16">
         <v>1.5974044799799998E-5</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="17">
         <f>B5 * LOG(B5, 2) * $H$9</f>
         <v>1.6212463378899999E-5</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="H5" s="22" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2732,23 +2857,23 @@
       <c r="B6" s="5">
         <v>20</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="15">
         <v>6.7710876464800002E-4</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="15">
         <v>1.5497207641600001E-4</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="15">
         <v>1.52111053467E-4</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="16">
         <v>2.3126602172899999E-5</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="17">
         <f>B6 * LOG(B6, 2) * $H$9</f>
         <v>4.2185802319105437E-5</v>
       </c>
-      <c r="H6" s="22">
+      <c r="H6" s="21">
         <f>RSQ(E5:E14, G5:G14)</f>
         <v>0.99861016739292163</v>
       </c>
@@ -2757,45 +2882,45 @@
       <c r="B7" s="5">
         <v>40</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="15">
         <v>3.8380622863800002E-3</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="15">
         <v>4.9901008605999998E-4</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="15">
         <v>3.1280517578099998E-4</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="16">
         <v>3.5047531127900001E-5</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="17">
         <f>B7 * LOG(B7, 2) * $H$9</f>
         <v>1.0389335576082177E-4</v>
       </c>
-      <c r="H7" s="22"/>
+      <c r="H7" s="21"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" s="5">
         <v>80</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="15">
         <v>2.4200916290299999E-2</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="15">
         <v>1.8320083618199999E-3</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="15">
         <v>6.4516067504899997E-4</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="16">
         <v>6.2942504882800005E-5</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="17">
         <f t="shared" ref="G6:G14" si="0">B8 * LOG(B8, 2) * $H$9</f>
         <v>2.4683021376686529E-4</v>
       </c>
-      <c r="H8" s="22" t="s">
+      <c r="H8" s="21" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2803,23 +2928,23 @@
       <c r="B9" s="5">
         <v>160</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="15">
         <v>0.16966009139999999</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="15">
         <v>7.0810317993199997E-3</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="15">
         <v>1.36494636536E-3</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="16">
         <v>1.16109848022E-4</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="17">
         <f t="shared" si="0"/>
         <v>5.7174743202417408E-4</v>
       </c>
-      <c r="H9" s="22">
+      <c r="H9" s="21">
         <f xml:space="preserve"> ($E$5 / ($B$5 * LOG($B$5, 2) * 5) )</f>
         <v>4.8804377806527206E-7</v>
       </c>
@@ -2828,115 +2953,116 @@
       <c r="B10" s="5">
         <v>320</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="15">
         <v>0.80736088752699997</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="15">
         <v>1.19590759277E-2</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="15">
         <v>1.1248588562000001E-3</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="16">
         <v>8.5115432739300002E-5</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="17">
         <f t="shared" si="0"/>
         <v>1.2996688730292352E-3</v>
       </c>
-      <c r="H10" s="22"/>
+      <c r="H10" s="21"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="5">
         <v>640</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="15">
         <v>3.8955600261700001</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="15">
         <v>4.7562122344999999E-2</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="15">
         <v>2.3748874664300001E-3</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="16">
         <v>1.6498565673800001E-4</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G11" s="17">
         <f>B11 * LOG(B11, 2) * $H$9</f>
         <v>2.9116857640202444E-3</v>
       </c>
-      <c r="H11" s="22"/>
+      <c r="H11" s="21"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="5">
         <v>1280</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="15">
         <v>31.423593998000001</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="15">
         <v>0.19263505935700001</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="15">
         <v>5.0539970397899996E-3</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="16">
         <v>3.2997131347699998E-4</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="17">
         <f t="shared" si="0"/>
         <v>6.448067563964037E-3</v>
       </c>
-      <c r="H12" s="22"/>
+      <c r="H12" s="21"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="5">
         <v>2560</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="15">
         <v>253.22493696199999</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="15">
         <v>0.77345800399800002</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="15">
         <v>1.05469226837E-2</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="16">
         <v>6.5493583679199999E-4</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G13" s="17">
         <f t="shared" si="0"/>
         <v>1.4145527199775172E-2</v>
       </c>
-      <c r="H13" s="22"/>
+      <c r="H13" s="21"/>
     </row>
     <row r="14" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="7">
         <v>5120</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="18">
         <v>2055.3600599800002</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="18">
         <v>3.1561529636399999</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="18">
         <v>2.2043943405199998E-2</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="19">
         <v>1.3351440429700001E-3</v>
       </c>
-      <c r="G14" s="25">
+      <c r="G14" s="24">
         <f t="shared" si="0"/>
         <v>3.0789838543244536E-2</v>
       </c>
-      <c r="H14" s="24"/>
+      <c r="H14" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="C2:F2"/>
+    <mergeCell ref="J2:M2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
